--- a/Labs/renewable Lab1.xlsx
+++ b/Labs/renewable Lab1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring 2019\Renewable Energy Systems\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{DDC5E7FE-638D-4F7B-B781-CE7B4620514A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC34BCAE-0F2D-42F6-B7D2-930FF553B471}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>K</t>
   </si>
@@ -63,16 +63,7 @@
     <t>Set 2</t>
   </si>
   <si>
-    <t>tilt: 30</t>
-  </si>
-  <si>
-    <t>Tilt: 0</t>
-  </si>
-  <si>
     <t>Set3</t>
-  </si>
-  <si>
-    <t>tilt:60</t>
   </si>
   <si>
     <t>FF1</t>
@@ -83,11 +74,35 @@
   <si>
     <t>FF3</t>
   </si>
+  <si>
+    <t>Intensity: 6520 Lux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room Light intensity </t>
+  </si>
+  <si>
+    <t>326 Lux</t>
+  </si>
+  <si>
+    <t>Intensity: 8730 Lux</t>
+  </si>
+  <si>
+    <t>Intensity: 6880 Lux</t>
+  </si>
+  <si>
+    <t>Tilt:60°</t>
+  </si>
+  <si>
+    <t>Tilt: 30°</t>
+  </si>
+  <si>
+    <t>Tilt: 0°</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,12 +112,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,8 +150,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -134,6 +170,6618 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>I-V curve</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> with tilt of 0°</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Current </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.60799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.627</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.60299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.443</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F6AB-46D5-9ABB-D2081E39BC3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="745207376"/>
+        <c:axId val="740359904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="745207376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="740359904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="740359904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Current (A)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="745207376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>I-V curve with tilt</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of 30°</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Current </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.60799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.442</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F88-4861-8F18-BBDC366BA5D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="782460928"/>
+        <c:axId val="740364896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="782460928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="740364896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="740364896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Current (A)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782460928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent3"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>I-V curve</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> with tilt of 60°</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Current </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$37:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$37:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9ABA-4981-8C17-6EEBD03DD4A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="782473328"/>
+        <c:axId val="83467904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="782473328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83467904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="83467904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Current (A)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782473328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>P-V curve with tilt of  0°</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.375111800639408E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3949623811742813E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21950184571801742</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40814822031222309</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79444139436357741</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1790986436651296</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.647993446022936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1853180803791648</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1020929055869062</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.748162030707041</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4880391215354773</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.1501347629310761</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B39-498A-AF06-350899A55B74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="745190576"/>
+        <c:axId val="740386112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="745190576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="740386112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="740386112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Power (W)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="745190576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>P-V</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> curve with tilt of 30°</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$20:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.2786304859137774E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7411900861948374E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20758642803972105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39651394888347652</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81999876553499507</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1760077288895712</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7911122847739653</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4900829324906346</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6369127911955252</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.012503190298775</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4617114633916248</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.1368940648057668</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B4FB-4C85-96C9-5944C7931483}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="747734064"/>
+        <c:axId val="740366560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="747734064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="740366560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="740366560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Powe</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t>r (W)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747734064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>P-V curve with tilt of 60°</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$37:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$37:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.9777757124835771E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2669571204966398E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15207231614072264</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28802096663683935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57579081106960772</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85562195356723048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2227788173514551</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7191097026232636</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4812979948435867</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.349799122876989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.679998480130493</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.7419021148411158</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B465-49B6-BE1F-01B8B3EC22F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="791792000"/>
+        <c:axId val="740375296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="791792000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="740375296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="740375296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Power (W)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="791792000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B21FF60-BE8E-4AC9-84F4-C2D0969AABF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E9DF8E-CE7F-46B9-B4B0-2F35E0C1FAF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24A69BE3-0D45-49E8-BC74-BF5CED44EF4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4090D229-880D-47C2-A991-63208BB57F4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97489D77-91F5-4516-AFC1-EE114C19E763}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13541623-735B-4216-A79B-0AECC7203662}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,16 +7080,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -450,7 +7098,10 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
@@ -461,16 +7112,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J2" t="s">
@@ -516,6 +7167,12 @@
         <f t="shared" ref="D4:D13" si="0">B4*A4*$K$6</f>
         <v>8.3949623811742813E-2</v>
       </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -547,7 +7204,7 @@
         <v>0.40814822031222309</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K6">
         <f>(A15-LN(A15+0.72))/(A15+1)</f>
@@ -569,7 +7226,7 @@
         <v>0.79444139436357741</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K7">
         <f>(A32-LN(A32+0.72))/(A32+1)</f>
@@ -591,7 +7248,7 @@
         <v>1.1790986436651296</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K8">
         <f>(A49-LN(A49+0.72))/(A49+1)</f>
@@ -708,20 +7365,23 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -921,23 +7581,26 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1137,5 +7800,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Labs/renewable Lab1.xlsx
+++ b/Labs/renewable Lab1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring 2019\Renewable Energy Systems\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC34BCAE-0F2D-42F6-B7D2-930FF553B471}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D74374-5135-4BDB-AC14-A3E9B02B809B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -293,6 +293,130 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:symbol val="x"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F5A4-4FDB-B5CC-71294AF167C4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>MPP:</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:fld id="{0B71F88D-8F61-43DC-BA89-C5ABDF10AF18}" type="YVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t> A</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-F5A4-4FDB-B5CC-71294AF167C4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$15</c:f>
@@ -807,6 +931,106 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>MPP:</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:fld id="{86A0BBE4-D750-4A24-8001-F7199D749B93}" type="YVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t> A</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-D8E6-4B07-9B39-5D46712AA366}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$20:$A$32</c:f>
@@ -1318,6 +1542,102 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>MPP: </a:t>
+                    </a:r>
+                    <a:fld id="{926B6D29-68DD-4A29-913D-706333AF9D4A}" type="YVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t> A </a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-E383-416C-A47F-D9CE4AADBC90}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$37:$A$49</c:f>
@@ -1824,6 +2144,154 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>MPP:</a:t>
+                    </a:r>
+                    <a:fld id="{3D605652-9BA2-4CBC-88EC-2F9257EDBBB2}" type="YVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t> W</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.26621992113877258"/>
+                      <c:h val="7.7753759456087729E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-DDBC-447F-A0E3-3365E6114264}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$15</c:f>
@@ -2335,6 +2803,112 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>MPP:</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:fld id="{CB297963-7A1B-4E2A-A40A-1B50BE6820FF}" type="YVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t> W</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.30948549486892274"/>
+                      <c:h val="0.1143071047107133"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-4C66-49D2-AFB8-BBF509F84C5F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$20:$A$32</c:f>
@@ -2846,6 +3420,112 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>MPP:</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:fld id="{35387FB0-5453-4EF5-9C82-F3E910BD1726}" type="YVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t> W</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.34576095635387449"/>
+                      <c:h val="0.11430714591328676"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-0CCE-4C79-8145-3441F8DFE686}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$37:$A$49</c:f>
@@ -7083,8 +7763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="103" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Labs/renewable Lab1.xlsx
+++ b/Labs/renewable Lab1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring 2019\Renewable Energy Systems\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D74374-5135-4BDB-AC14-A3E9B02B809B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7E03F3-2667-40A4-A7C7-BDA2F3F7EA96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2223,12 +2223,15 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.26621992113877258"/>
-                      <c:h val="7.7753759456087729E-2"/>
-                    </c:manualLayout>
-                  </c15:layout>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -2840,12 +2843,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.30948549486892274"/>
-                      <c:h val="0.1143071047107133"/>
-                    </c:manualLayout>
-                  </c15:layout>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -3459,8 +3456,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.34576095635387449"/>
-                      <c:h val="0.11430714591328676"/>
+                      <c:w val="0.34975000000000001"/>
+                      <c:h val="0.11395041818842985"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -7763,8 +7760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="103" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
